--- a/product_discountsAsc.xlsx
+++ b/product_discountsAsc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,230 +530,230 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Atelier Of Witch Hat Vol. 2</t>
+          <t>COMITE OLIMPICO DO BRASIL 2024 - Álbum Capa Cartão</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.9</v>
+        <v>19.9</v>
       </c>
       <c r="C6" t="n">
-        <v>13.45</v>
+        <v>13.97</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-50%</t>
+          <t>-22.01%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>COMITE OLIMPICO DO BRASIL 2024 - Álbum Capa Cartão</t>
+          <t>O Espetacular Homem-Aranha Vol. 7 / 51</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.9</v>
+        <v>27.9</v>
       </c>
       <c r="C7" t="n">
-        <v>13.97</v>
+        <v>14.06</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-22.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>O Espetacular Homem-Aranha Vol. 7 / 51</t>
+          <t>Star Wars – Obi Wan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.9</v>
+        <v>31.9</v>
       </c>
       <c r="C8" t="n">
-        <v>14.06</v>
+        <v>14.35</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Star Wars – Obi Wan</t>
+          <t>Atelier Of Witch Hat Vol. 3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.9</v>
+        <v>29.9</v>
       </c>
       <c r="C9" t="n">
-        <v>14.35</v>
+        <v>15.07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-50%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Atelier Of Witch Hat Vol. 3</t>
+          <t>Star Wars: O Império Vol. 2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.9</v>
+        <v>34.9</v>
       </c>
       <c r="C10" t="n">
-        <v>15.07</v>
+        <v>15.71</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A Saga Dos X-Men Vol. 16</t>
+          <t>A Saga Do Superman Vol. 1/25</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>39.9</v>
       </c>
       <c r="C11" t="n">
-        <v>17.95</v>
+        <v>21.91</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-50%</t>
+          <t>-39%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A Saga Dos Novos Titãs 02</t>
+          <t>A Saga Do Homem-Aranha 10</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>39.9</v>
       </c>
       <c r="C12" t="n">
-        <v>17.95</v>
+        <v>21.91</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-50%</t>
+          <t>-39%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A Saga Da Liga Da Justiça Vol. 16</t>
+          <t>Ataque Dos Titãs: Outside</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.9</v>
+        <v>43.9</v>
       </c>
       <c r="C13" t="n">
-        <v>17.95</v>
+        <v>22.12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-50%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Box As Melhores Histórias Da Mônica 01</t>
+          <t>Ataque Dos Titãs: Answers</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.9</v>
+        <v>43.9</v>
       </c>
       <c r="C14" t="n">
-        <v>18.03</v>
+        <v>22.12</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-33.01%</t>
+          <t>-44.01%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LA LIGA 23-24 - Kit Com 6 Envelopes</t>
+          <t>A Saga Dos Novos Titãs 04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>36.9</v>
       </c>
       <c r="C15" t="n">
-        <v>18.09</v>
+        <v>22.25</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-33%</t>
+          <t>-33.01%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>O Verão Em Que Hikaru Morreu 02</t>
+          <t>A Saga Da Liga Da Justiça Vol. 13</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.9</v>
+        <v>49.9</v>
       </c>
       <c r="C16" t="n">
-        <v>18.59</v>
+        <v>22.45</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 04</t>
+          <t>Aquaman &amp; Flash: Canção Do Vazio</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.9</v>
+        <v>49.9</v>
       </c>
       <c r="C17" t="n">
-        <v>19.1</v>
+        <v>22.45</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-50%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 07</t>
+          <t>Star Wars - Han Solo: Cadete Imperial</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.9</v>
+        <v>44.9</v>
       </c>
       <c r="C18" t="n">
-        <v>19.1</v>
+        <v>22.63</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -764,702 +764,162 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 08</t>
+          <t>As Memórias De Vanitas 10</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>37.9</v>
       </c>
       <c r="C19" t="n">
-        <v>19.1</v>
+        <v>22.85</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-33.01%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 09</t>
+          <t>A Saga Do Batman Vol. 35</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37.9</v>
+        <v>39.9</v>
       </c>
       <c r="C20" t="n">
-        <v>19.1</v>
+        <v>24.06</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-33.01%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>As Memórias De Vanitas 06</t>
+          <t>A Saga Do Homem-Aranha 09</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37.9</v>
+        <v>39.9</v>
       </c>
       <c r="C21" t="n">
-        <v>19.1</v>
+        <v>24.06</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-33.01%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Star Wars: Leia, A Princesa De Alderaan Vol. 2</t>
+          <t>Star Wars (2021) Vol. 6: As Buscas Da Força</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.9</v>
+        <v>39.9</v>
       </c>
       <c r="C22" t="n">
-        <v>19.1</v>
+        <v>24.06</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-33.01%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Star Wars: Rebeldes Vol. 2</t>
+          <t>Star Wars: Império Oculto</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.9</v>
+        <v>39.9</v>
       </c>
       <c r="C23" t="n">
-        <v>19.1</v>
+        <v>24.06</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-33.01%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Star Wars: Rebeldes Vol. 1</t>
+          <t>Star Wars: Darth Vader (2021) Vol. 6</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>37.9</v>
+        <v>34.9</v>
       </c>
       <c r="C24" t="n">
-        <v>19.1</v>
+        <v>24.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-22.01%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Star Wars: Rebeldes Vol. 3</t>
+          <t>One Piece Vol. 02</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.9</v>
+        <v>34.9</v>
       </c>
       <c r="C25" t="n">
-        <v>19.1</v>
+        <v>24.5</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-22.01%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Star Wars: Estrelas Perdidas Vol. 3</t>
+          <t>One Piece Vol. 03</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>37.9</v>
+        <v>34.9</v>
       </c>
       <c r="C26" t="n">
-        <v>19.1</v>
+        <v>24.5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-44.01%</t>
+          <t>-22.01%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A Saga Do Homem-Aranha 07</t>
+          <t>American Jesus: Revelação</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39.9</v>
+        <v>54.9</v>
       </c>
       <c r="C27" t="n">
-        <v>20.11</v>
+        <v>24.71</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A Saga Do Homem-Aranha 08</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C28" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A Saga Do Flash 04</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C29" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A Saga Dos Vingadores 02</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C30" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Star Wars: Caçadores De Recompensas Vol. 5</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C31" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>A Saga Da Liga Da Justiça Vol. 15</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Star Wars: Sana Starros</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="C33" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>-33.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Demon Slayer - Kimetsu No Yaiba Vol. 2</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="C34" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>-33.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>KonoSuba: Abençoado Mundo Maravilhoso! Vol. 1</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="C35" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>-33.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>A Saga Do Superman Vol. 1/25</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C36" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>-39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>A Saga Do Homem-Aranha 10</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C37" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>-39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Ataque Dos Titãs: Outside</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="C38" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Ataque Dos Titãs: Answers</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="C39" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>A Saga Dos Novos Titãs 04</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="C40" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>-33.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>A Saga Da Liga Da Justiça Vol. 13</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C41" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
           <t>-50%</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Aquaman &amp; Flash: Canção Do Vazio</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C42" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>-50%</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Star Wars - Han Solo: Cadete Imperial</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="C43" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>As Memórias De Vanitas 10</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="C44" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>-33.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>A Saga Do Batman Vol. 35</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C45" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>-33.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>A Saga Do Homem-Aranha 09</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C46" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>-33.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Star Wars (2021) Vol. 6: As Buscas Da Força</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C47" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>-33.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Star Wars: Império Oculto</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="C48" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>-33.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Star Wars: Darth Vader (2021) Vol. 6</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="C49" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>-22.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>One Piece Vol. 02</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="C50" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>-22.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>One Piece Vol. 03</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="C51" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>-22.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>American Jesus: Revelação</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C52" t="n">
-        <v>24.71</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>-50%</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Asa Noturna (2022) Vol. 5</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C53" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>A Saga Do Flash 05</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Pokémon Platinum 01</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="C55" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>-22.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Ataque Dos Titãs (2 Em 1) Vol. 01</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C56" t="n">
-        <v>30.09</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>-33.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Mônica: Tesouros (Graphic MSP) - Capa Dura</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="C57" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>-44.01%</t>
         </is>
       </c>
     </row>
